--- a/src/main/java/resources/testData/TestData.xlsx
+++ b/src/main/java/resources/testData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsingh\.jenkins\${JENKIN_HOME}\ECP_VW\src\main\java\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsingh\git_project\ECP_VW\src\main\java\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,7 +180,7 @@
     <t>PARTCLINET_USER</t>
   </si>
   <si>
-    <t>Partner/User1</t>
+    <t>Partner/User</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/resources/testData/TestData.xlsx
+++ b/src/main/java/resources/testData/TestData.xlsx
@@ -512,13 +512,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/java/resources/testData/TestData.xlsx
+++ b/src/main/java/resources/testData/TestData.xlsx
@@ -138,9 +138,6 @@
     <t>PARTNER/CUSTOMER_ADMIN</t>
   </si>
   <si>
-    <t>PART_CUST_ADMIN1</t>
-  </si>
-  <si>
     <t>PARTNER/DEVELOPER</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Partner/User</t>
+  </si>
+  <si>
+    <t>PART_CUST_ADMIN3</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>35</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
